--- a/MG-samples.xlsx
+++ b/MG-samples.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdlee4/Documents/Nathan_Ahlgren/Thaum-TARA/samples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdlee4/Documents/Nathan_Ahlgren/Thaum-TARA/github/Thaum-mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC08601C-D71A-C54B-B562-3C941D056B93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD38705A-6BB0-5F42-B25E-03439F590037}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10600" yWindow="4300" windowWidth="35440" windowHeight="22300" xr2:uid="{AA072E50-4714-B344-894C-51A6EDB51B26}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5889" uniqueCount="3025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5892" uniqueCount="3028">
   <si>
     <t>Biosample</t>
   </si>
@@ -9105,6 +9105,15 @@
   </si>
   <si>
     <t>SRR10912865</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/sra/SRR10912787</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/sra/SRR10912786</t>
+  </si>
+  <si>
+    <t># had different number of reads in what were supposed to forward and reverse paired, so dropped it</t>
   </si>
 </sst>
 </file>
@@ -9114,7 +9123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9130,13 +9139,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -9148,10 +9177,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -9171,8 +9201,20 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9485,10 +9527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21822E54-1684-BA4C-A70F-14C499D1BAC6}">
-  <dimension ref="A1:R61"/>
+  <dimension ref="A1:AB61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9509,7 +9551,7 @@
     <col min="18" max="18" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>2699</v>
       </c>
@@ -9563,7 +9605,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2484</v>
       </c>
@@ -9617,7 +9659,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>2485</v>
       </c>
@@ -9671,7 +9713,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>2486</v>
       </c>
@@ -9725,7 +9767,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>2487</v>
       </c>
@@ -9779,7 +9821,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>2488</v>
       </c>
@@ -9836,7 +9878,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>2489</v>
       </c>
@@ -9890,7 +9932,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>2490</v>
       </c>
@@ -9944,7 +9986,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>2491</v>
       </c>
@@ -9998,7 +10040,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>2492</v>
       </c>
@@ -10052,7 +10094,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>2493</v>
       </c>
@@ -10106,7 +10148,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>2494</v>
       </c>
@@ -10160,61 +10202,68 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>2495</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="9" t="s">
         <v>2483</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="9">
         <v>0</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="9">
         <v>-121.22</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="9">
         <v>70.209999999999994</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="10">
         <v>53900208</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="11">
         <v>51668724</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="9">
         <v>95.86</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="12" t="s">
         <v>2927</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="12" t="s">
         <v>2928</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="12">
         <v>53900208</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="12">
         <v>47085198</v>
       </c>
-      <c r="M13" s="3" t="b">
+      <c r="M13" s="12" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3" t="b">
+      <c r="O13" s="12" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="7">
+      <c r="Q13" s="10">
         <v>53900208</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="R13" s="9" t="s">
         <v>2495</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="13" t="s">
+        <v>3027</v>
+      </c>
+      <c r="AA13" s="12" t="s">
+        <v>3025</v>
+      </c>
+      <c r="AB13" s="12" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>2496</v>
       </c>
@@ -10268,7 +10317,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>2497</v>
       </c>
@@ -10325,7 +10374,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>2498</v>
       </c>
